--- a/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>76.569544480588931</v>
+        <v>76.56954451833559</v>
       </c>
       <c r="C2">
-        <v>59.464925913993774</v>
+        <v>59.464925909435919</v>
       </c>
       <c r="D2">
-        <v>87.460494236956066</v>
+        <v>87.460494273462132</v>
       </c>
       <c r="E2">
-        <v>53.497206571522206</v>
+        <v>53.497206610282348</v>
       </c>
       <c r="F2">
-        <v>98.787746427366386</v>
+        <v>98.787746443495735</v>
       </c>
       <c r="G2">
-        <v>43.702960458933056</v>
+        <v>43.702960465213629</v>
       </c>
       <c r="H2">
-        <v>87.727552458204926</v>
+        <v>87.727552496418809</v>
       </c>
       <c r="I2">
-        <v>53.682032609867179</v>
+        <v>53.682032633905116</v>
       </c>
       <c r="J2">
-        <v>87.616228315184912</v>
+        <v>87.616228300805631</v>
       </c>
       <c r="K2">
-        <v>74.363634750647478</v>
+        <v>74.363634760340247</v>
       </c>
       <c r="L2">
-        <v>112.91216279288338</v>
+        <v>112.91216285005636</v>
       </c>
       <c r="M2">
-        <v>46.041027245480755</v>
+        <v>46.041027287872573</v>
       </c>
       <c r="N2">
-        <v>65.750387550723019</v>
+        <v>65.750387609836494</v>
       </c>
       <c r="O2">
-        <v>35.006802921838243</v>
+        <v>35.00680295715339</v>
       </c>
       <c r="P2">
-        <v>40.130791332821317</v>
+        <v>40.130791318474564</v>
       </c>
       <c r="Q2">
-        <v>35.064195039182295</v>
+        <v>35.064195051949262</v>
       </c>
       <c r="R2">
-        <v>45.407415271843917</v>
+        <v>45.407415285381461</v>
       </c>
       <c r="S2">
-        <v>62.029073220741552</v>
+        <v>62.029073230413481</v>
       </c>
       <c r="T2">
-        <v>62.635159201726353</v>
+        <v>62.635159233692811</v>
       </c>
       <c r="U2">
-        <v>52.375808513891727</v>
+        <v>52.37580854309298</v>
       </c>
       <c r="V2">
-        <v>59.253221137322342</v>
+        <v>59.253221148482481</v>
       </c>
       <c r="W2">
-        <v>32.793214961778695</v>
+        <v>32.79321498514912</v>
       </c>
       <c r="X2">
-        <v>28.860987706852068</v>
+        <v>28.860987723293665</v>
       </c>
       <c r="Y2">
-        <v>37.463708001147992</v>
+        <v>37.463708040154188</v>
       </c>
       <c r="Z2">
-        <v>72.361255273873141</v>
+        <v>72.361255298210352</v>
       </c>
       <c r="AA2">
-        <v>55.765281992491552</v>
+        <v>55.76528205628415</v>
       </c>
       <c r="AB2">
-        <v>55.433583144171756</v>
+        <v>55.433583144284725</v>
       </c>
       <c r="AC2">
-        <v>60.766328975286847</v>
+        <v>60.766328980258479</v>
       </c>
       <c r="AD2">
-        <v>53.126145622792826</v>
+        <v>53.126145668601509</v>
       </c>
       <c r="AE2">
-        <v>65.403081722216768</v>
+        <v>65.403081724501817</v>
       </c>
       <c r="AF2">
-        <v>45.445587139040988</v>
+        <v>45.445587139101455</v>
       </c>
       <c r="AG2">
-        <v>91.993755384314341</v>
+        <v>91.993755411532163</v>
       </c>
       <c r="AH2">
-        <v>57.329161290204397</v>
+        <v>57.329161302152002</v>
       </c>
       <c r="AI2">
-        <v>87.599156065921647</v>
+        <v>87.59915607464184</v>
       </c>
       <c r="AJ2">
-        <v>81.343772823746505</v>
+        <v>81.343772851697096</v>
       </c>
       <c r="AK2">
-        <v>117.24014566939601</v>
+        <v>117.24014572069251</v>
       </c>
       <c r="AL2">
-        <v>52.235089955064801</v>
+        <v>52.235089993214679</v>
       </c>
       <c r="AM2">
-        <v>65.129723749514454</v>
+        <v>65.129723805740554</v>
       </c>
       <c r="AN2">
-        <v>38.816475144593959</v>
+        <v>38.816475182433159</v>
       </c>
       <c r="AO2">
-        <v>31.619791093359471</v>
+        <v>31.619791129171954</v>
       </c>
       <c r="AP2">
-        <v>26.546448903398286</v>
+        <v>26.546448919223973</v>
       </c>
       <c r="AQ2">
-        <v>43.068835114522869</v>
+        <v>43.068835150836037</v>
       </c>
       <c r="AR2">
-        <v>60.30500745952051</v>
+        <v>60.30500747152719</v>
       </c>
       <c r="AS2">
-        <v>64.861540747233292</v>
+        <v>64.861540765260656</v>
       </c>
       <c r="AT2">
-        <v>53.723853086422487</v>
+        <v>53.723853101384378</v>
       </c>
       <c r="AU2">
-        <v>55.637390503617219</v>
+        <v>55.637390512853159</v>
       </c>
       <c r="AV2">
-        <v>43.693563751237214</v>
+        <v>43.693563766807948</v>
       </c>
       <c r="AW2">
-        <v>31.507529770834836</v>
+        <v>31.507529778372358</v>
       </c>
       <c r="AX2">
-        <v>36.769007984807843</v>
+        <v>36.769008012737494</v>
       </c>
       <c r="AY2">
-        <v>52.085107579852483</v>
+        <v>52.085107594845468</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57.68044654315608</v>
+        <v>57.680446526792061</v>
       </c>
       <c r="C3">
-        <v>67.585545473006448</v>
+        <v>67.585545505495247</v>
       </c>
       <c r="D3">
-        <v>56.982170214194269</v>
+        <v>56.982170230275614</v>
       </c>
       <c r="E3">
-        <v>62.396360381943104</v>
+        <v>62.396360391281753</v>
       </c>
       <c r="F3">
-        <v>59.752600098180274</v>
+        <v>59.75260011348837</v>
       </c>
       <c r="G3">
-        <v>45.028180202435131</v>
+        <v>45.028180221623778</v>
       </c>
       <c r="H3">
-        <v>91.789315249528258</v>
+        <v>91.789315287759933</v>
       </c>
       <c r="I3">
-        <v>42.544701902478408</v>
+        <v>42.54470191678125</v>
       </c>
       <c r="J3">
-        <v>90.501952127781692</v>
+        <v>90.501952134359826</v>
       </c>
       <c r="K3">
-        <v>70.733937721744866</v>
+        <v>70.733937757491674</v>
       </c>
       <c r="L3">
-        <v>73.780882455438018</v>
+        <v>73.780882501096286</v>
       </c>
       <c r="M3">
-        <v>44.108306999443712</v>
+        <v>44.108453375827892</v>
       </c>
       <c r="N3">
-        <v>63.376823636007849</v>
+        <v>63.376823674849284</v>
       </c>
       <c r="O3">
-        <v>43.216688849896073</v>
+        <v>43.216688876332171</v>
       </c>
       <c r="P3">
-        <v>34.69361502878958</v>
+        <v>34.693615064069157</v>
       </c>
       <c r="Q3">
-        <v>40.520226088590668</v>
+        <v>40.52022611032092</v>
       </c>
       <c r="R3">
-        <v>48.834862819813353</v>
+        <v>48.834862836497692</v>
       </c>
       <c r="S3">
-        <v>56.998148888372299</v>
+        <v>56.99814890436906</v>
       </c>
       <c r="T3">
-        <v>80.607475839892643</v>
+        <v>80.607475875827021</v>
       </c>
       <c r="U3">
-        <v>71.714865114334799</v>
+        <v>71.714865141822074</v>
       </c>
       <c r="V3">
-        <v>47.357886781601749</v>
+        <v>47.357886801034532</v>
       </c>
       <c r="W3">
-        <v>68.193148243796244</v>
+        <v>68.193148324594716</v>
       </c>
       <c r="X3">
-        <v>26.019055391968429</v>
+        <v>26.019055450288612</v>
       </c>
       <c r="Y3">
-        <v>38.695293100000342</v>
+        <v>38.695293117570976</v>
       </c>
       <c r="Z3">
-        <v>40.378646393786568</v>
+        <v>40.378646412614387</v>
       </c>
       <c r="AA3">
-        <v>48.686858825184395</v>
+        <v>48.686858863198772</v>
       </c>
       <c r="AB3">
-        <v>74.453792122425853</v>
+        <v>74.453792145376639</v>
       </c>
       <c r="AC3">
-        <v>55.035572862157416</v>
+        <v>55.03557289305018</v>
       </c>
       <c r="AD3">
-        <v>67.500447959308147</v>
+        <v>67.500448011926935</v>
       </c>
       <c r="AE3">
-        <v>44.061079371883004</v>
+        <v>44.061079370477991</v>
       </c>
       <c r="AF3">
-        <v>47.192122259698181</v>
+        <v>47.192122286946152</v>
       </c>
       <c r="AG3">
-        <v>88.554380477284056</v>
+        <v>88.554380510825141</v>
       </c>
       <c r="AH3">
-        <v>39.512457339496976</v>
+        <v>39.512457345269077</v>
       </c>
       <c r="AI3">
-        <v>89.651233803560046</v>
+        <v>89.651233854739274</v>
       </c>
       <c r="AJ3">
-        <v>70.371138307867213</v>
+        <v>70.371138356267068</v>
       </c>
       <c r="AK3">
-        <v>101.70413031108785</v>
+        <v>101.70413035348383</v>
       </c>
       <c r="AL3">
-        <v>34.289363437364173</v>
+        <v>34.289363455446988</v>
       </c>
       <c r="AM3">
-        <v>52.717170717960137</v>
+        <v>52.717170761474343</v>
       </c>
       <c r="AN3">
-        <v>45.188359670361415</v>
+        <v>45.18835969066658</v>
       </c>
       <c r="AO3">
-        <v>34.011577205354868</v>
+        <v>34.011577233632615</v>
       </c>
       <c r="AP3">
-        <v>42.367199794534066</v>
+        <v>42.367199832520392</v>
       </c>
       <c r="AQ3">
-        <v>42.816065491998877</v>
+        <v>42.816065499721788</v>
       </c>
       <c r="AR3">
-        <v>57.407271551109183</v>
+        <v>57.407271580221362</v>
       </c>
       <c r="AS3">
-        <v>81.372508660345829</v>
+        <v>81.372508687042611</v>
       </c>
       <c r="AT3">
-        <v>68.976918300147375</v>
+        <v>68.976918322643982</v>
       </c>
       <c r="AU3">
-        <v>51.639498924659051</v>
+        <v>51.639498950913492</v>
       </c>
       <c r="AV3">
-        <v>69.209094260595208</v>
+        <v>69.209094327649936</v>
       </c>
       <c r="AW3">
-        <v>28.361626967874322</v>
+        <v>28.361626989177484</v>
       </c>
       <c r="AX3">
-        <v>40.306365745657736</v>
+        <v>40.306365771849585</v>
       </c>
       <c r="AY3">
-        <v>38.250122132824558</v>
+        <v>38.250122155277467</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>76.56954451833559</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>59.464925909435919</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>87.460494273462132</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>53.497206610282348</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>98.787746443495735</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>43.702960465213629</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>87.727552496418809</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>53.682032633905116</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>87.616228300805631</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>74.363634760340247</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>112.91216285005636</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>46.041027287872573</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>65.750387609836494</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>35.00680295715339</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>40.130791318474564</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>35.064195051949262</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>45.407415285381461</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>62.029073230413481</v>
@@ -588,55 +477,55 @@
         <v>72.361255298210352</v>
       </c>
       <c r="AA2">
-        <v>55.76528205628415</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>55.433583144284725</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>60.766328980258479</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>53.126145668601509</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>65.403081724501817</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>45.445587139101455</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>91.993755411532163</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>57.329161302152002</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>87.59915607464184</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>81.343772851697096</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>117.24014572069251</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>52.235089993214679</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>65.129723805740554</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>38.816475182433159</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>31.619791129171954</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>26.546448919223973</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>43.068835150836037</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>60.30500747152719</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>57.680446526792061</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>67.585545505495247</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>56.982170230275614</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>62.396360391281753</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>59.75260011348837</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>45.028180221623778</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>91.789315287759933</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>42.54470191678125</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>90.501952134359826</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>70.733937757491674</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>73.780882501096286</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>44.108453375827892</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>63.376823674849284</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>43.216688876332171</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>34.693615064069157</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>40.52022611032092</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>48.834862836497692</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>56.99814890436906</v>
@@ -743,55 +629,55 @@
         <v>40.378646412614387</v>
       </c>
       <c r="AA3">
-        <v>48.686858863198772</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>74.453792145376639</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>55.03557289305018</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>67.500448011926935</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>44.061079370477991</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>47.192122286946152</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>88.554380510825141</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>39.512457345269077</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>89.651233854739274</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>70.371138356267068</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>101.70413035348383</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>34.289363455446988</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>52.717170761474343</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>45.18835969066658</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>34.011577233632615</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>42.367199832520392</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>42.816065499721788</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>57.407271580221362</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>76.569544480588931</v>
+        <v>35.00680295715339</v>
       </c>
       <c r="C2">
-        <v>59.464925913993774</v>
+        <v>45.407415285381461</v>
       </c>
       <c r="D2">
-        <v>87.460494236956066</v>
+        <v>38.816475182433159</v>
       </c>
       <c r="E2">
-        <v>53.497206571522206</v>
+        <v>43.068835150836037</v>
       </c>
       <c r="F2">
         <v>98.787746427366386</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57.68044654315608</v>
+        <v>43.216688876332171</v>
       </c>
       <c r="C3">
-        <v>67.585545473006448</v>
+        <v>48.834862836497692</v>
       </c>
       <c r="D3">
-        <v>56.982170214194269</v>
+        <v>45.18835969066658</v>
       </c>
       <c r="E3">
-        <v>62.396360381943104</v>
+        <v>42.78755270190009</v>
       </c>
       <c r="F3">
         <v>59.752600098180274</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>76.569544480588931</v>
+        <v>67.344776313292996</v>
       </c>
       <c r="C2">
-        <v>59.464925913993774</v>
+        <v>36.669401897941171</v>
       </c>
       <c r="D2">
-        <v>87.460494236956066</v>
+        <v>67.079255776434451</v>
       </c>
       <c r="E2">
-        <v>53.497206571522206</v>
+        <v>40.905546271713845</v>
       </c>
       <c r="F2">
         <v>98.787746427366386</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>57.68044654315608</v>
+        <v>63.376823674849284</v>
       </c>
       <c r="C3">
-        <v>67.585545473006448</v>
+        <v>43.216688876332171</v>
       </c>
       <c r="D3">
-        <v>56.982170214194269</v>
+        <v>52.717170761474343</v>
       </c>
       <c r="E3">
-        <v>62.396360381943104</v>
+        <v>45.18835969066658</v>
       </c>
       <c r="F3">
         <v>59.752600098180274</v>

--- a/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_length_AT_ind_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>77.760402922989186</v>
+      </c>
+      <c r="C2">
+        <v>59.464925909435919</v>
+      </c>
+      <c r="D2">
+        <v>95.857121431145558</v>
+      </c>
+      <c r="E2">
+        <v>62.871528890975817</v>
+      </c>
+      <c r="F2">
+        <v>98.787746443495735</v>
+      </c>
+      <c r="G2">
+        <v>43.702960465213629</v>
+      </c>
+      <c r="H2">
+        <v>88.473975848619233</v>
+      </c>
+      <c r="I2">
+        <v>57.33465488870813</v>
+      </c>
+      <c r="J2">
+        <v>88.436797950156574</v>
+      </c>
+      <c r="K2">
+        <v>79.264254337449486</v>
+      </c>
+      <c r="L2">
+        <v>117.94224035086638</v>
+      </c>
+      <c r="M2">
+        <v>46.041027287872573</v>
+      </c>
+      <c r="N2">
         <v>67.344776313292996</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>36.669401897941171</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>40.130791318474564</v>
+      </c>
+      <c r="Q2">
+        <v>35.064195051949262</v>
+      </c>
+      <c r="R2">
+        <v>45.407415285381461</v>
+      </c>
+      <c r="S2">
+        <v>64.019049282211398</v>
+      </c>
+      <c r="T2">
+        <v>62.635159233692811</v>
+      </c>
+      <c r="U2">
+        <v>53.506163407507756</v>
+      </c>
+      <c r="V2">
+        <v>65.13757807463081</v>
+      </c>
+      <c r="W2">
+        <v>40.583953505057963</v>
+      </c>
+      <c r="X2">
+        <v>32.492754258586842</v>
+      </c>
+      <c r="Y2">
+        <v>38.101254690068046</v>
+      </c>
+      <c r="Z2">
+        <v>72.361255298210352</v>
+      </c>
+      <c r="AA2">
+        <v>56.821159133563931</v>
+      </c>
+      <c r="AB2">
+        <v>55.433583144284725</v>
+      </c>
+      <c r="AC2">
+        <v>69.49062396087524</v>
+      </c>
+      <c r="AD2">
+        <v>62.898886954286006</v>
+      </c>
+      <c r="AE2">
+        <v>65.403081724501817</v>
+      </c>
+      <c r="AF2">
+        <v>45.445587139101455</v>
+      </c>
+      <c r="AG2">
+        <v>92.828789591610217</v>
+      </c>
+      <c r="AH2">
+        <v>61.585586062191062</v>
+      </c>
+      <c r="AI2">
+        <v>88.369576853849736</v>
+      </c>
+      <c r="AJ2">
+        <v>85.605107620343887</v>
+      </c>
+      <c r="AK2">
+        <v>123.12853694390697</v>
+      </c>
+      <c r="AL2">
+        <v>52.235089993214679</v>
+      </c>
+      <c r="AM2">
         <v>67.079255776434451</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>40.905546271713845</v>
       </c>
-      <c r="F2">
-        <v>98.787746427366386</v>
-      </c>
-      <c r="G2">
-        <v>43.702960458933056</v>
-      </c>
-      <c r="H2">
-        <v>87.727552458204926</v>
-      </c>
-      <c r="I2">
-        <v>53.682032609867179</v>
-      </c>
-      <c r="J2">
-        <v>87.616228315184912</v>
-      </c>
-      <c r="K2">
-        <v>74.363634750647478</v>
-      </c>
-      <c r="L2">
-        <v>112.91216279288338</v>
-      </c>
-      <c r="M2">
-        <v>46.041027245480755</v>
-      </c>
-      <c r="N2">
-        <v>65.750387550723019</v>
-      </c>
-      <c r="O2">
-        <v>35.006802921838243</v>
-      </c>
-      <c r="P2">
-        <v>40.130791332821317</v>
-      </c>
-      <c r="Q2">
-        <v>35.064195039182295</v>
-      </c>
-      <c r="R2">
-        <v>45.407415271843917</v>
-      </c>
-      <c r="S2">
-        <v>62.029073220741552</v>
-      </c>
-      <c r="T2">
-        <v>62.635159201726353</v>
-      </c>
-      <c r="U2">
-        <v>52.375808513891727</v>
-      </c>
-      <c r="V2">
-        <v>59.253221137322342</v>
-      </c>
-      <c r="W2">
-        <v>32.826029016968342</v>
-      </c>
-      <c r="X2">
-        <v>28.860987706852068</v>
-      </c>
-      <c r="Y2">
-        <v>37.463708001147992</v>
-      </c>
-      <c r="Z2">
-        <v>72.361255273873141</v>
-      </c>
-      <c r="AA2">
-        <v>55.765281992491552</v>
-      </c>
-      <c r="AB2">
-        <v>55.433583144171756</v>
-      </c>
-      <c r="AC2">
-        <v>60.766328975286847</v>
-      </c>
-      <c r="AD2">
-        <v>53.126145622792826</v>
-      </c>
-      <c r="AE2">
-        <v>65.403081722216768</v>
-      </c>
-      <c r="AF2">
-        <v>45.445587139040988</v>
-      </c>
-      <c r="AG2">
-        <v>91.993755384314341</v>
-      </c>
-      <c r="AH2">
-        <v>57.329161290204397</v>
-      </c>
-      <c r="AI2">
-        <v>87.599156065921647</v>
-      </c>
-      <c r="AJ2">
-        <v>81.343772823746505</v>
-      </c>
-      <c r="AK2">
-        <v>117.24014566939601</v>
-      </c>
-      <c r="AL2">
-        <v>52.235089955064801</v>
-      </c>
-      <c r="AM2">
-        <v>65.129723749514454</v>
-      </c>
-      <c r="AN2">
-        <v>38.816475144593959</v>
-      </c>
       <c r="AO2">
-        <v>31.619791093359471</v>
+        <v>31.619791129171954</v>
       </c>
       <c r="AP2">
-        <v>26.546448903398286</v>
+        <v>26.546448919223973</v>
       </c>
       <c r="AQ2">
-        <v>43.068835114522869</v>
+        <v>43.068835150836037</v>
       </c>
       <c r="AR2">
-        <v>60.30500745952051</v>
+        <v>62.98568686696828</v>
       </c>
       <c r="AS2">
-        <v>64.861540747233292</v>
+        <v>64.861540765260656</v>
       </c>
       <c r="AT2">
-        <v>53.723853086422487</v>
+        <v>54.818008857933435</v>
       </c>
       <c r="AU2">
-        <v>55.637390503617219</v>
+        <v>62.532674412465788</v>
       </c>
       <c r="AV2">
-        <v>43.728972411767934</v>
+        <v>51.570793905457613</v>
       </c>
       <c r="AW2">
-        <v>31.507529770834836</v>
+        <v>35.504531332786307</v>
       </c>
       <c r="AX2">
-        <v>36.769007984807843</v>
+        <v>37.283357011338232</v>
       </c>
       <c r="AY2">
-        <v>52.085107579852483</v>
+        <v>52.085107594845468</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>57.680446526792061</v>
+      </c>
+      <c r="C3">
+        <v>73.34670076104905</v>
+      </c>
+      <c r="D3">
+        <v>56.982170230275614</v>
+      </c>
+      <c r="E3">
+        <v>62.396360391281753</v>
+      </c>
+      <c r="F3">
+        <v>62.949000778258224</v>
+      </c>
+      <c r="G3">
+        <v>47.471386981288234</v>
+      </c>
+      <c r="H3">
+        <v>91.789315287759933</v>
+      </c>
+      <c r="I3">
+        <v>42.54470191678125</v>
+      </c>
+      <c r="J3">
+        <v>90.501952134359826</v>
+      </c>
+      <c r="K3">
+        <v>70.733937757491674</v>
+      </c>
+      <c r="L3">
+        <v>73.780882501096286</v>
+      </c>
+      <c r="M3">
+        <v>48.455587591423772</v>
+      </c>
+      <c r="N3">
         <v>63.376823674849284</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>43.216688876332171</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>36.092312784206548</v>
+      </c>
+      <c r="Q3">
+        <v>41.417167466244088</v>
+      </c>
+      <c r="R3">
+        <v>52.874351238693556</v>
+      </c>
+      <c r="S3">
+        <v>56.99814890436906</v>
+      </c>
+      <c r="T3">
+        <v>81.415905624947044</v>
+      </c>
+      <c r="U3">
+        <v>71.714865141822074</v>
+      </c>
+      <c r="V3">
+        <v>47.357886801034532</v>
+      </c>
+      <c r="W3">
+        <v>68.196874251701132</v>
+      </c>
+      <c r="X3">
+        <v>26.019055450288612</v>
+      </c>
+      <c r="Y3">
+        <v>38.695293117570976</v>
+      </c>
+      <c r="Z3">
+        <v>40.533112275748159</v>
+      </c>
+      <c r="AA3">
+        <v>48.686858863198772</v>
+      </c>
+      <c r="AB3">
+        <v>80.87062663784593</v>
+      </c>
+      <c r="AC3">
+        <v>55.03557289305018</v>
+      </c>
+      <c r="AD3">
+        <v>67.500448011926935</v>
+      </c>
+      <c r="AE3">
+        <v>47.963610384309426</v>
+      </c>
+      <c r="AF3">
+        <v>49.803134333951007</v>
+      </c>
+      <c r="AG3">
+        <v>88.554380510825141</v>
+      </c>
+      <c r="AH3">
+        <v>39.514281069297809</v>
+      </c>
+      <c r="AI3">
+        <v>89.651233854739274</v>
+      </c>
+      <c r="AJ3">
+        <v>70.371138356267068</v>
+      </c>
+      <c r="AK3">
+        <v>101.70413035348383</v>
+      </c>
+      <c r="AL3">
+        <v>38.340824279373102</v>
+      </c>
+      <c r="AM3">
         <v>52.717170761474343</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>45.18835969066658</v>
       </c>
-      <c r="F3">
-        <v>59.752600098180274</v>
-      </c>
-      <c r="G3">
-        <v>45.028180202435131</v>
-      </c>
-      <c r="H3">
-        <v>91.789315249528258</v>
-      </c>
-      <c r="I3">
-        <v>42.544701902478408</v>
-      </c>
-      <c r="J3">
-        <v>90.501952127781692</v>
-      </c>
-      <c r="K3">
-        <v>70.733937721744866</v>
-      </c>
-      <c r="L3">
-        <v>73.780882455438018</v>
-      </c>
-      <c r="M3">
-        <v>44.108306999443712</v>
-      </c>
-      <c r="N3">
-        <v>63.376823636007849</v>
-      </c>
-      <c r="O3">
-        <v>43.216688849896073</v>
-      </c>
-      <c r="P3">
-        <v>34.69361502878958</v>
-      </c>
-      <c r="Q3">
-        <v>40.520226088590668</v>
-      </c>
-      <c r="R3">
-        <v>48.834862819813353</v>
-      </c>
-      <c r="S3">
-        <v>56.998148888372299</v>
-      </c>
-      <c r="T3">
-        <v>80.607475839892643</v>
-      </c>
-      <c r="U3">
-        <v>71.714865114334799</v>
-      </c>
-      <c r="V3">
-        <v>47.357886781601749</v>
-      </c>
-      <c r="W3">
-        <v>68.196874185800269</v>
-      </c>
-      <c r="X3">
-        <v>26.019055391968429</v>
-      </c>
-      <c r="Y3">
-        <v>38.695293100000342</v>
-      </c>
-      <c r="Z3">
-        <v>40.378646393786568</v>
-      </c>
-      <c r="AA3">
-        <v>48.686858825184395</v>
-      </c>
-      <c r="AB3">
-        <v>74.453792122425853</v>
-      </c>
-      <c r="AC3">
-        <v>55.035572862157416</v>
-      </c>
-      <c r="AD3">
-        <v>67.500447959308147</v>
-      </c>
-      <c r="AE3">
-        <v>44.061079371883004</v>
-      </c>
-      <c r="AF3">
-        <v>47.192122259698181</v>
-      </c>
-      <c r="AG3">
-        <v>88.554380477284056</v>
-      </c>
-      <c r="AH3">
-        <v>39.514281073782357</v>
-      </c>
-      <c r="AI3">
-        <v>89.651233803560046</v>
-      </c>
-      <c r="AJ3">
-        <v>70.371138307867213</v>
-      </c>
-      <c r="AK3">
-        <v>101.70413031108785</v>
-      </c>
-      <c r="AL3">
-        <v>34.289363437364173</v>
-      </c>
-      <c r="AM3">
-        <v>52.717170717960137</v>
-      </c>
-      <c r="AN3">
-        <v>45.188359670361415</v>
-      </c>
       <c r="AO3">
-        <v>34.011577205354868</v>
+        <v>35.296783118200885</v>
       </c>
       <c r="AP3">
-        <v>42.367199794534066</v>
+        <v>43.297298154756781</v>
       </c>
       <c r="AQ3">
-        <v>42.787552699767026</v>
+        <v>47.760437452000765</v>
       </c>
       <c r="AR3">
-        <v>57.407271551109183</v>
+        <v>57.407271580221362</v>
       </c>
       <c r="AS3">
-        <v>81.372508660345829</v>
+        <v>82.545492659430053</v>
       </c>
       <c r="AT3">
-        <v>68.976918300147375</v>
+        <v>68.976918322643982</v>
       </c>
       <c r="AU3">
-        <v>51.639498924659051</v>
+        <v>51.639498950913492</v>
       </c>
       <c r="AV3">
-        <v>69.221215539830894</v>
+        <v>69.221215607566705</v>
       </c>
       <c r="AW3">
-        <v>28.361626967874322</v>
+        <v>28.361626989177484</v>
       </c>
       <c r="AX3">
-        <v>40.306365745657736</v>
+        <v>40.306365771849585</v>
       </c>
       <c r="AY3">
-        <v>38.250122132824558</v>
+        <v>38.372193786272867</v>
       </c>
     </row>
   </sheetData>
